--- a/medicine/Enfance/Robert_Francis_Kennedy_Jr/Robert_Francis_Kennedy_Jr..xlsx
+++ b/medicine/Enfance/Robert_Francis_Kennedy_Jr/Robert_Francis_Kennedy_Jr..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Francis Kennedy Jr., né le 17 janvier 1954 à Washington, est un homme politique américain (membre du Parti démocrate), avocat spécialisé dans le droit de l'environnement et militant anti-vaccination.
 Il s'est marié à l'actrice Cheryl Hines le 2 août 2014.
@@ -512,22 +524,24 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le troisième des onze enfants d'Ethel Kennedy et de Robert Francis Kennedy, ainsi que le neveu de John Fitzgerald Kennedy et de Ted Kennedy. Son père, Robert Francis Kennedy, est procureur général des États-Unis (ministre de la Justice) de 1960 à 1964 et candidat à l'élection présidentielle américaine de 1968, assassiné au cours de la campagne[1].
-Il étudie à l'université Harvard et à la London School of Economics[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le troisième des onze enfants d'Ethel Kennedy et de Robert Francis Kennedy, ainsi que le neveu de John Fitzgerald Kennedy et de Ted Kennedy. Son père, Robert Francis Kennedy, est procureur général des États-Unis (ministre de la Justice) de 1960 à 1964 et candidat à l'élection présidentielle américaine de 1968, assassiné au cours de la campagne.
+Il étudie à l'université Harvard et à la London School of Economics.
 Il anime une émission sur le droit de l'environnement sur Air America Radio.
-Fin 2007, avec ses deux sœurs Kathleen Kennedy Townsend et Mary Kerry Kennedy, il apporte son soutien à Hillary Clinton dans les primaires démocrates à l'élection présidentielle de 2008[1].
-Sa deuxième femme, Mary, se suicide chez elle à Bedford, dans l’État de New York, le 17 mai 2012. Le couple, qui avait quatre enfants, était séparé depuis 2010 et une procédure de divorce était en cours[2],[3].
-Il est l'un des avocats de Dewayne Lee Johnson, qui a gagné un procès historique contre Monsanto en 2018. L'entreprise est condamnée à verser au plaignant 289 millions de dollars[4].
-Militant anti-vaccination, il soutient la thèse d'un lien entre vaccination et autisme[5],[6]. Il est producteur délégué du film Vaxxed II: The People's Truth, la suite de 2019 du film anti-vaccination Vaxxed[7]. Il préside l'organisation anti-vaccination World Mercury Project, devenue Children's Health Defense en 2018[8].
+Fin 2007, avec ses deux sœurs Kathleen Kennedy Townsend et Mary Kerry Kennedy, il apporte son soutien à Hillary Clinton dans les primaires démocrates à l'élection présidentielle de 2008.
+Sa deuxième femme, Mary, se suicide chez elle à Bedford, dans l’État de New York, le 17 mai 2012. Le couple, qui avait quatre enfants, était séparé depuis 2010 et une procédure de divorce était en cours,.
+Il est l'un des avocats de Dewayne Lee Johnson, qui a gagné un procès historique contre Monsanto en 2018. L'entreprise est condamnée à verser au plaignant 289 millions de dollars.
+Militant anti-vaccination, il soutient la thèse d'un lien entre vaccination et autisme,. Il est producteur délégué du film Vaxxed II: The People's Truth, la suite de 2019 du film anti-vaccination Vaxxed. Il préside l'organisation anti-vaccination World Mercury Project, devenue Children's Health Defense en 2018.
 Il est également auteur de littérature d'enfance et de jeunesse.
-En janvier 2013, il révèle que son père, le procureur général Robert F. Kennedy, pensait que le président Kennedy n'avait pas été assassiné par un tireur solitaire, et que malgré ses déclarations publiques, il considérait le rapport Warren comme « un bricolage mal fichu » (a shoddy piece of craftsmanship)[9].
-Le 29 août 2020 à Berlin, il prononce un discours, lors d'une manifestation contre les restrictions de liberté liées à la pandémie de Covid-19, dans lequel il affirme : « Les gouvernements aiment les pandémies, et ils aiment les pandémies pour les mêmes raisons qu’ils aiment la guerre. Parce qu’elle leur donne la possibilité d’imposer à la population des contrôles que celle-ci n’accepterait jamais autrement… ». Il reprend la phrase de son oncle « ich bin ein Berliner » et affirme que les gouvernements ont profité de la pandémie pour installer la 5G et permettre la collecte des données au profit de milliardaires tels que Bill Gates, Mark Zuckerberg et Jeff Bezos[10].
-En 2021, les comptes Instagram et Facebook de Children's Health Defense, l'organisation que préside Robert Francis Kennedy Jr., sont supprimés par la maison-mère Meta pour « violations répétées de [leurs] politiques sur le Covid-19 »[11].
-Le 23 janvier 2022, à l'occasion d'une manifestation à Washington, il compare les mesures vaccinales aux États-Unis à celles prises contre les Juifs par le régime nazi. Ses remarques font réagir le musée national Auschwitz-Birkenau, qui déclare qu'« exploiter la tragédie de personnes qui ont souffert, furent humiliées, torturées et assassinées par le régime totalitaire de l'Allemagne nazie — y compris des enfants comme Anne Frank — dans un débat sur la vaccination et les restrictions durant une pandémie globale est un triste symbole d'une décrépitude morale et intellectuelle[12] ».
-Selon une étude du Center for Countering Digital Hate, Robert Francis Kennedy fait partie du noyau d'une douzaine de personnes à l'origine de deux tiers de la désinformation concernant la pandémie sur les réseaux sociaux, notamment sur Facebook[13],[14]. Pour l'historien américain Joseph Palermo (en), il serait le représentant typique des antivax de gauche, « ceux qui glissent de la défense de l’environnement à ce qu’ils pensent être un combat contre les lobbys pharmaceutiques »[15].
-Le 19 avril 2023, il présente sa candidature à l'investiture des primaires du Parti démocrate pour l'élection présidentielle américaine de 2024[16]. C'est le quatrième membre de sa famille à être candidat à l'élection présidentielle américaine après John Fitzgerald Kennedy, Robert Francis Kennedy et Ted Kennedy. Au début du mois d'octobre, il annonce renoncer à cette candidature et se présenter comme candidat indépendant pour la prochaine élection présidentielle. Un sondage Reuters/Ipsos estime alors qu'il bénéficie du soutien de 14 % des électeurs potentiels[17]. Le 26 mars 2024, il annonce le nom de sa colistière pour l'élection présidentielle de 2024, l’avocate Nicole Shanahan[18].
+En janvier 2013, il révèle que son père, le procureur général Robert F. Kennedy, pensait que le président Kennedy n'avait pas été assassiné par un tireur solitaire, et que malgré ses déclarations publiques, il considérait le rapport Warren comme « un bricolage mal fichu » (a shoddy piece of craftsmanship).
+Le 29 août 2020 à Berlin, il prononce un discours, lors d'une manifestation contre les restrictions de liberté liées à la pandémie de Covid-19, dans lequel il affirme : « Les gouvernements aiment les pandémies, et ils aiment les pandémies pour les mêmes raisons qu’ils aiment la guerre. Parce qu’elle leur donne la possibilité d’imposer à la population des contrôles que celle-ci n’accepterait jamais autrement… ». Il reprend la phrase de son oncle « ich bin ein Berliner » et affirme que les gouvernements ont profité de la pandémie pour installer la 5G et permettre la collecte des données au profit de milliardaires tels que Bill Gates, Mark Zuckerberg et Jeff Bezos.
+En 2021, les comptes Instagram et Facebook de Children's Health Defense, l'organisation que préside Robert Francis Kennedy Jr., sont supprimés par la maison-mère Meta pour « violations répétées de [leurs] politiques sur le Covid-19 ».
+Le 23 janvier 2022, à l'occasion d'une manifestation à Washington, il compare les mesures vaccinales aux États-Unis à celles prises contre les Juifs par le régime nazi. Ses remarques font réagir le musée national Auschwitz-Birkenau, qui déclare qu'« exploiter la tragédie de personnes qui ont souffert, furent humiliées, torturées et assassinées par le régime totalitaire de l'Allemagne nazie — y compris des enfants comme Anne Frank — dans un débat sur la vaccination et les restrictions durant une pandémie globale est un triste symbole d'une décrépitude morale et intellectuelle ».
+Selon une étude du Center for Countering Digital Hate, Robert Francis Kennedy fait partie du noyau d'une douzaine de personnes à l'origine de deux tiers de la désinformation concernant la pandémie sur les réseaux sociaux, notamment sur Facebook,. Pour l'historien américain Joseph Palermo (en), il serait le représentant typique des antivax de gauche, « ceux qui glissent de la défense de l’environnement à ce qu’ils pensent être un combat contre les lobbys pharmaceutiques ».
+Le 19 avril 2023, il présente sa candidature à l'investiture des primaires du Parti démocrate pour l'élection présidentielle américaine de 2024. C'est le quatrième membre de sa famille à être candidat à l'élection présidentielle américaine après John Fitzgerald Kennedy, Robert Francis Kennedy et Ted Kennedy. Au début du mois d'octobre, il annonce renoncer à cette candidature et se présenter comme candidat indépendant pour la prochaine élection présidentielle. Un sondage Reuters/Ipsos estime alors qu'il bénéficie du soutien de 14 % des électeurs potentiels. Le 26 mars 2024, il annonce le nom de sa colistière pour l'élection présidentielle de 2024, l’avocate Nicole Shanahan.
 </t>
         </is>
       </c>
@@ -556,7 +570,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Essais
 The Real Anthony Fauci: Bill Gates, Big Pharma, and the Global War on Democracy and Public Health, New York, Skyhorse Publishing (en), 2021, 480 p. (ISBN 978-1510766808), p. 480
